--- a/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_Addthôngtintaikhoan.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_Addthôngtintaikhoan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30B66E9-11D8-46B0-99E0-1433147072D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EC62D7-AFCC-4FAC-9B2D-93C879503968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
@@ -1554,6 +1554,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1575,30 +1599,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1689,38 +1689,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2061,31 +2061,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -2158,21 +2158,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -2181,54 +2181,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="58"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2757,8 +2757,8 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2776,17 +2776,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2822,17 +2822,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="81">
@@ -2888,7 +2888,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40" t="s">
@@ -3557,7 +3557,7 @@
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="82"/>
-      <c r="B44" s="99"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="86"/>
       <c r="D44" s="88"/>
       <c r="E44" s="90"/>
@@ -4017,17 +4017,17 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="91" t="s">
+      <c r="A69" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="91"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="91"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="91"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="100"/>
+      <c r="G69" s="100"/>
+      <c r="H69" s="100"/>
+      <c r="I69" s="100"/>
     </row>
     <row r="70" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="81">
@@ -4173,17 +4173,17 @@
       </c>
     </row>
     <row r="77" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="95"/>
-      <c r="B77" s="97" t="s">
+      <c r="A77" s="91"/>
+      <c r="B77" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="95" t="s">
+      <c r="C77" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="D77" s="93" t="s">
+      <c r="D77" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="E77" s="93"/>
+      <c r="E77" s="95"/>
       <c r="F77" s="44">
         <v>1</v>
       </c>
@@ -4245,11 +4245,11 @@
       <c r="I80" s="40"/>
     </row>
     <row r="81" spans="1:9" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="96"/>
-      <c r="B81" s="98"/>
-      <c r="C81" s="96"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="94"/>
+      <c r="A81" s="98"/>
+      <c r="B81" s="99"/>
+      <c r="C81" s="98"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="97"/>
       <c r="F81" s="44">
         <v>5</v>
       </c>
@@ -4262,17 +4262,17 @@
       </c>
     </row>
     <row r="82" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="95"/>
-      <c r="B82" s="97" t="s">
+      <c r="A82" s="91"/>
+      <c r="B82" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="C82" s="95" t="s">
+      <c r="C82" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="D82" s="93" t="s">
+      <c r="D82" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="E82" s="93" t="s">
+      <c r="E82" s="95" t="s">
         <v>59</v>
       </c>
       <c r="F82" s="44">
@@ -4355,11 +4355,11 @@
       </c>
     </row>
     <row r="87" spans="1:9" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="99"/>
-      <c r="B87" s="100"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="101"/>
-      <c r="E87" s="101"/>
+      <c r="A87" s="92"/>
+      <c r="B87" s="94"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="96"/>
       <c r="F87" s="44">
         <v>6</v>
       </c>
@@ -4878,51 +4878,28 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A104:A111"/>
-    <mergeCell ref="B104:B111"/>
-    <mergeCell ref="C104:C111"/>
-    <mergeCell ref="D104:D111"/>
-    <mergeCell ref="E104:E111"/>
-    <mergeCell ref="A96:A103"/>
-    <mergeCell ref="B96:B103"/>
-    <mergeCell ref="C96:C103"/>
-    <mergeCell ref="D96:D103"/>
-    <mergeCell ref="E96:E103"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="E82:E87"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="E53:E60"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="E61:E68"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="C45:C52"/>
-    <mergeCell ref="D45:D52"/>
-    <mergeCell ref="E45:E52"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="B29:B44"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="B88:B95"/>
+    <mergeCell ref="C88:C95"/>
+    <mergeCell ref="D88:D95"/>
+    <mergeCell ref="E88:E95"/>
     <mergeCell ref="A69:I69"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="B75:B76"/>
@@ -4939,32 +4916,55 @@
     <mergeCell ref="C70:C71"/>
     <mergeCell ref="D70:D71"/>
     <mergeCell ref="E70:E71"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="E29:E36"/>
+    <mergeCell ref="B29:B44"/>
     <mergeCell ref="A37:A44"/>
     <mergeCell ref="C37:C44"/>
     <mergeCell ref="D37:D44"/>
     <mergeCell ref="E37:E44"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="B88:B95"/>
-    <mergeCell ref="C88:C95"/>
-    <mergeCell ref="D88:D95"/>
-    <mergeCell ref="E88:E95"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="E5:E12"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="C45:C52"/>
+    <mergeCell ref="D45:D52"/>
+    <mergeCell ref="E45:E52"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="E61:E68"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="E53:E60"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="E82:E87"/>
+    <mergeCell ref="A96:A103"/>
+    <mergeCell ref="B96:B103"/>
+    <mergeCell ref="C96:C103"/>
+    <mergeCell ref="D96:D103"/>
+    <mergeCell ref="E96:E103"/>
+    <mergeCell ref="A104:A111"/>
+    <mergeCell ref="B104:B111"/>
+    <mergeCell ref="C104:C111"/>
+    <mergeCell ref="D104:D111"/>
+    <mergeCell ref="E104:E111"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_Addthôngtintaikhoan.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_Addthôngtintaikhoan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EC62D7-AFCC-4FAC-9B2D-93C879503968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476D9541-AA98-49BB-B837-94CD8EAB3D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hiển thỉ giao diện trang chủ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiển thị 3 mục Chính sách công ty , Nhân sự , sơ đồ tổ chức </t>
   </si>
   <si>
     <t>Quản lý công ty Bất động Sản</t>
@@ -769,6 +766,9 @@
   </si>
   <si>
     <t>Test Cases for ''Add thông tin tài khoản    "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị cửa sôổ thêm tài khoản </t>
   </si>
 </sst>
 </file>
@@ -1554,6 +1554,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1578,27 +1599,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1683,44 +1683,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2061,31 +2061,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="B3" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -2158,21 +2158,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -2181,54 +2181,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="58"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2290,14 +2290,14 @@
       </c>
       <c r="B2" s="70"/>
       <c r="C2" s="71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="73"/>
       <c r="H2" s="74"/>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B4" s="62"/>
       <c r="C4" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="64"/>
       <c r="E4" s="28" t="s">
@@ -2379,11 +2379,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>36</v>
@@ -2399,11 +2399,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>36</v>
@@ -2419,11 +2419,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>36</v>
@@ -2439,11 +2439,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>36</v>
@@ -2459,11 +2459,11 @@
         <v>5</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>37</v>
@@ -2479,11 +2479,11 @@
         <v>6</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>37</v>
@@ -2497,11 +2497,11 @@
     <row r="15" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>36</v>
@@ -2517,13 +2517,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>35</v>
@@ -2539,13 +2539,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>35</v>
@@ -2561,13 +2561,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>35</v>
@@ -2583,13 +2583,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>35</v>
@@ -2605,13 +2605,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>35</v>
@@ -2627,13 +2627,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>35</v>
@@ -2649,13 +2649,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>35</v>
@@ -2670,13 +2670,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>35</v>
@@ -2691,13 +2691,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>35</v>
@@ -2757,8 +2757,8 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <pane ySplit="3" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2776,17 +2776,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
+      <c r="A1" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2822,39 +2822,39 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
     </row>
     <row r="5" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="81">
         <v>1</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="89" t="s">
-        <v>65</v>
+      <c r="E5" s="91" t="s">
+        <v>64</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38" t="s">
@@ -2866,16 +2866,16 @@
       <c r="B6" s="84"/>
       <c r="C6" s="86"/>
       <c r="D6" s="88"/>
-      <c r="E6" s="90"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="44">
         <v>2</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2883,16 +2883,16 @@
       <c r="B7" s="84"/>
       <c r="C7" s="86"/>
       <c r="D7" s="88"/>
-      <c r="E7" s="90"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="44">
         <v>3</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2900,15 +2900,15 @@
       <c r="B8" s="84"/>
       <c r="C8" s="86"/>
       <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="44">
         <v>4</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I8" s="40"/>
     </row>
@@ -2917,16 +2917,16 @@
       <c r="B9" s="84"/>
       <c r="C9" s="86"/>
       <c r="D9" s="88"/>
-      <c r="E9" s="90"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="44">
         <v>6</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2934,18 +2934,18 @@
       <c r="B10" s="84"/>
       <c r="C10" s="86"/>
       <c r="D10" s="88"/>
-      <c r="E10" s="90"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="44">
         <v>7</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2953,16 +2953,16 @@
       <c r="B11" s="84"/>
       <c r="C11" s="86"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="90"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="44">
         <v>8</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2970,16 +2970,16 @@
       <c r="B12" s="84"/>
       <c r="C12" s="86"/>
       <c r="D12" s="88"/>
-      <c r="E12" s="90"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="44">
         <v>9</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2987,22 +2987,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="89" t="s">
-        <v>65</v>
+      <c r="E13" s="91" t="s">
+        <v>64</v>
       </c>
       <c r="F13" s="44">
         <v>1</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="38" t="s">
@@ -3014,16 +3014,16 @@
       <c r="B14" s="84"/>
       <c r="C14" s="86"/>
       <c r="D14" s="88"/>
-      <c r="E14" s="90"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="44">
         <v>2</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3031,16 +3031,16 @@
       <c r="B15" s="84"/>
       <c r="C15" s="86"/>
       <c r="D15" s="88"/>
-      <c r="E15" s="90"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="44">
         <v>3</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H15" s="40"/>
       <c r="I15" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3048,15 +3048,15 @@
       <c r="B16" s="84"/>
       <c r="C16" s="86"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="90"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="44">
         <v>4</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I16" s="40"/>
     </row>
@@ -3065,16 +3065,16 @@
       <c r="B17" s="84"/>
       <c r="C17" s="86"/>
       <c r="D17" s="88"/>
-      <c r="E17" s="90"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="44">
         <v>6</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="40"/>
       <c r="I17" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3082,18 +3082,18 @@
       <c r="B18" s="84"/>
       <c r="C18" s="86"/>
       <c r="D18" s="88"/>
-      <c r="E18" s="90"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="44">
         <v>7</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3101,16 +3101,16 @@
       <c r="B19" s="84"/>
       <c r="C19" s="86"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="90"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="44">
         <v>8</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3118,16 +3118,16 @@
       <c r="B20" s="84"/>
       <c r="C20" s="86"/>
       <c r="D20" s="88"/>
-      <c r="E20" s="90"/>
+      <c r="E20" s="92"/>
       <c r="F20" s="44">
         <v>9</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" s="40"/>
       <c r="I20" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3135,22 +3135,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="89" t="s">
-        <v>65</v>
+      <c r="E21" s="91" t="s">
+        <v>64</v>
       </c>
       <c r="F21" s="44">
         <v>1</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="38" t="s">
@@ -3162,16 +3162,16 @@
       <c r="B22" s="84"/>
       <c r="C22" s="86"/>
       <c r="D22" s="88"/>
-      <c r="E22" s="90"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="44">
         <v>2</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H22" s="40"/>
       <c r="I22" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3179,16 +3179,16 @@
       <c r="B23" s="84"/>
       <c r="C23" s="86"/>
       <c r="D23" s="88"/>
-      <c r="E23" s="90"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="44">
         <v>3</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H23" s="40"/>
       <c r="I23" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3196,15 +3196,15 @@
       <c r="B24" s="84"/>
       <c r="C24" s="86"/>
       <c r="D24" s="88"/>
-      <c r="E24" s="90"/>
+      <c r="E24" s="92"/>
       <c r="F24" s="44">
         <v>4</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I24" s="40"/>
     </row>
@@ -3213,16 +3213,16 @@
       <c r="B25" s="84"/>
       <c r="C25" s="86"/>
       <c r="D25" s="88"/>
-      <c r="E25" s="90"/>
+      <c r="E25" s="92"/>
       <c r="F25" s="44">
         <v>6</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H25" s="40"/>
       <c r="I25" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3230,18 +3230,18 @@
       <c r="B26" s="84"/>
       <c r="C26" s="86"/>
       <c r="D26" s="88"/>
-      <c r="E26" s="90"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="44">
         <v>7</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3249,16 +3249,16 @@
       <c r="B27" s="84"/>
       <c r="C27" s="86"/>
       <c r="D27" s="88"/>
-      <c r="E27" s="90"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="44">
         <v>8</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H27" s="40"/>
       <c r="I27" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3266,16 +3266,16 @@
       <c r="B28" s="84"/>
       <c r="C28" s="86"/>
       <c r="D28" s="88"/>
-      <c r="E28" s="90"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="44">
         <v>9</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3283,22 +3283,22 @@
         <v>1</v>
       </c>
       <c r="B29" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="89" t="s">
-        <v>65</v>
+      <c r="E29" s="91" t="s">
+        <v>64</v>
       </c>
       <c r="F29" s="44">
         <v>1</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H29" s="38"/>
       <c r="I29" s="38" t="s">
@@ -3310,16 +3310,16 @@
       <c r="B30" s="86"/>
       <c r="C30" s="86"/>
       <c r="D30" s="88"/>
-      <c r="E30" s="90"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="44">
         <v>2</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H30" s="40"/>
       <c r="I30" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3327,16 +3327,16 @@
       <c r="B31" s="86"/>
       <c r="C31" s="86"/>
       <c r="D31" s="88"/>
-      <c r="E31" s="90"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="44">
         <v>3</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H31" s="40"/>
       <c r="I31" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3344,15 +3344,15 @@
       <c r="B32" s="86"/>
       <c r="C32" s="86"/>
       <c r="D32" s="88"/>
-      <c r="E32" s="90"/>
+      <c r="E32" s="92"/>
       <c r="F32" s="44">
         <v>4</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I32" s="40"/>
     </row>
@@ -3361,16 +3361,16 @@
       <c r="B33" s="86"/>
       <c r="C33" s="86"/>
       <c r="D33" s="88"/>
-      <c r="E33" s="90"/>
+      <c r="E33" s="92"/>
       <c r="F33" s="44">
         <v>6</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H33" s="40"/>
       <c r="I33" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3378,18 +3378,18 @@
       <c r="B34" s="86"/>
       <c r="C34" s="86"/>
       <c r="D34" s="88"/>
-      <c r="E34" s="90"/>
+      <c r="E34" s="92"/>
       <c r="F34" s="44">
         <v>7</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3397,16 +3397,16 @@
       <c r="B35" s="86"/>
       <c r="C35" s="86"/>
       <c r="D35" s="88"/>
-      <c r="E35" s="90"/>
+      <c r="E35" s="92"/>
       <c r="F35" s="44">
         <v>8</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H35" s="40"/>
       <c r="I35" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3414,16 +3414,16 @@
       <c r="B36" s="86"/>
       <c r="C36" s="86"/>
       <c r="D36" s="88"/>
-      <c r="E36" s="90"/>
+      <c r="E36" s="92"/>
       <c r="F36" s="44">
         <v>9</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H36" s="40"/>
       <c r="I36" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3432,19 +3432,19 @@
       </c>
       <c r="B37" s="86"/>
       <c r="C37" s="85" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D37" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" s="89" t="s">
-        <v>65</v>
+        <v>140</v>
+      </c>
+      <c r="E37" s="91" t="s">
+        <v>64</v>
       </c>
       <c r="F37" s="44">
         <v>1</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" s="38"/>
       <c r="I37" s="38" t="s">
@@ -3456,16 +3456,16 @@
       <c r="B38" s="86"/>
       <c r="C38" s="86"/>
       <c r="D38" s="88"/>
-      <c r="E38" s="90"/>
+      <c r="E38" s="92"/>
       <c r="F38" s="44">
         <v>2</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3473,16 +3473,16 @@
       <c r="B39" s="86"/>
       <c r="C39" s="86"/>
       <c r="D39" s="88"/>
-      <c r="E39" s="90"/>
+      <c r="E39" s="92"/>
       <c r="F39" s="44">
         <v>3</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3490,15 +3490,15 @@
       <c r="B40" s="86"/>
       <c r="C40" s="86"/>
       <c r="D40" s="88"/>
-      <c r="E40" s="90"/>
+      <c r="E40" s="92"/>
       <c r="F40" s="44">
         <v>4</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I40" s="40"/>
     </row>
@@ -3507,16 +3507,16 @@
       <c r="B41" s="86"/>
       <c r="C41" s="86"/>
       <c r="D41" s="88"/>
-      <c r="E41" s="90"/>
+      <c r="E41" s="92"/>
       <c r="F41" s="44">
         <v>6</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H41" s="40"/>
       <c r="I41" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3524,18 +3524,18 @@
       <c r="B42" s="86"/>
       <c r="C42" s="86"/>
       <c r="D42" s="88"/>
-      <c r="E42" s="90"/>
+      <c r="E42" s="92"/>
       <c r="F42" s="44">
         <v>7</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3543,33 +3543,33 @@
       <c r="B43" s="86"/>
       <c r="C43" s="86"/>
       <c r="D43" s="88"/>
-      <c r="E43" s="90"/>
+      <c r="E43" s="92"/>
       <c r="F43" s="44">
         <v>8</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H43" s="40"/>
       <c r="I43" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="82"/>
-      <c r="B44" s="92"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="86"/>
       <c r="D44" s="88"/>
-      <c r="E44" s="90"/>
+      <c r="E44" s="92"/>
       <c r="F44" s="44">
         <v>9</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H44" s="40"/>
       <c r="I44" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3577,22 +3577,22 @@
         <v>1</v>
       </c>
       <c r="B45" s="83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="89" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="E45" s="91" t="s">
+        <v>64</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H45" s="38"/>
       <c r="I45" s="38" t="s">
@@ -3604,16 +3604,16 @@
       <c r="B46" s="84"/>
       <c r="C46" s="86"/>
       <c r="D46" s="88"/>
-      <c r="E46" s="90"/>
+      <c r="E46" s="92"/>
       <c r="F46" s="44">
         <v>2</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H46" s="40"/>
       <c r="I46" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3621,16 +3621,16 @@
       <c r="B47" s="84"/>
       <c r="C47" s="86"/>
       <c r="D47" s="88"/>
-      <c r="E47" s="90"/>
+      <c r="E47" s="92"/>
       <c r="F47" s="44">
         <v>3</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H47" s="40"/>
       <c r="I47" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3638,15 +3638,15 @@
       <c r="B48" s="84"/>
       <c r="C48" s="86"/>
       <c r="D48" s="88"/>
-      <c r="E48" s="90"/>
+      <c r="E48" s="92"/>
       <c r="F48" s="44">
         <v>4</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I48" s="40"/>
     </row>
@@ -3655,16 +3655,16 @@
       <c r="B49" s="84"/>
       <c r="C49" s="86"/>
       <c r="D49" s="88"/>
-      <c r="E49" s="90"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="44">
         <v>6</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H49" s="40"/>
       <c r="I49" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3672,18 +3672,18 @@
       <c r="B50" s="84"/>
       <c r="C50" s="86"/>
       <c r="D50" s="88"/>
-      <c r="E50" s="90"/>
+      <c r="E50" s="92"/>
       <c r="F50" s="44">
         <v>7</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I50" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3691,16 +3691,16 @@
       <c r="B51" s="84"/>
       <c r="C51" s="86"/>
       <c r="D51" s="88"/>
-      <c r="E51" s="90"/>
+      <c r="E51" s="92"/>
       <c r="F51" s="44">
         <v>8</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3708,16 +3708,16 @@
       <c r="B52" s="84"/>
       <c r="C52" s="86"/>
       <c r="D52" s="88"/>
-      <c r="E52" s="90"/>
+      <c r="E52" s="92"/>
       <c r="F52" s="44">
         <v>9</v>
       </c>
       <c r="G52" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H52" s="40"/>
       <c r="I52" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3725,22 +3725,22 @@
         <v>1</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="D53" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="89" t="s">
-        <v>65</v>
+      <c r="E53" s="91" t="s">
+        <v>64</v>
       </c>
       <c r="F53" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G53" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H53" s="38"/>
       <c r="I53" s="38" t="s">
@@ -3752,16 +3752,16 @@
       <c r="B54" s="84"/>
       <c r="C54" s="86"/>
       <c r="D54" s="88"/>
-      <c r="E54" s="90"/>
+      <c r="E54" s="92"/>
       <c r="F54" s="44">
         <v>2</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H54" s="40"/>
       <c r="I54" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3769,16 +3769,16 @@
       <c r="B55" s="84"/>
       <c r="C55" s="86"/>
       <c r="D55" s="88"/>
-      <c r="E55" s="90"/>
+      <c r="E55" s="92"/>
       <c r="F55" s="44">
         <v>3</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H55" s="40"/>
       <c r="I55" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3786,15 +3786,15 @@
       <c r="B56" s="84"/>
       <c r="C56" s="86"/>
       <c r="D56" s="88"/>
-      <c r="E56" s="90"/>
+      <c r="E56" s="92"/>
       <c r="F56" s="44">
         <v>4</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I56" s="40"/>
     </row>
@@ -3803,16 +3803,16 @@
       <c r="B57" s="84"/>
       <c r="C57" s="86"/>
       <c r="D57" s="88"/>
-      <c r="E57" s="90"/>
+      <c r="E57" s="92"/>
       <c r="F57" s="44">
         <v>6</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H57" s="40"/>
       <c r="I57" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3820,18 +3820,18 @@
       <c r="B58" s="84"/>
       <c r="C58" s="86"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="90"/>
+      <c r="E58" s="92"/>
       <c r="F58" s="44">
         <v>7</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I58" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3839,16 +3839,16 @@
       <c r="B59" s="84"/>
       <c r="C59" s="86"/>
       <c r="D59" s="88"/>
-      <c r="E59" s="90"/>
+      <c r="E59" s="92"/>
       <c r="F59" s="44">
         <v>8</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H59" s="40"/>
       <c r="I59" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3856,16 +3856,16 @@
       <c r="B60" s="84"/>
       <c r="C60" s="86"/>
       <c r="D60" s="88"/>
-      <c r="E60" s="90"/>
+      <c r="E60" s="92"/>
       <c r="F60" s="44">
         <v>9</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H60" s="40"/>
       <c r="I60" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3873,22 +3873,22 @@
         <v>1</v>
       </c>
       <c r="B61" s="83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C61" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="D61" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" s="89" t="s">
-        <v>65</v>
+      <c r="E61" s="91" t="s">
+        <v>64</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G61" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H61" s="38"/>
       <c r="I61" s="38" t="s">
@@ -3900,16 +3900,16 @@
       <c r="B62" s="84"/>
       <c r="C62" s="86"/>
       <c r="D62" s="88"/>
-      <c r="E62" s="90"/>
+      <c r="E62" s="92"/>
       <c r="F62" s="44">
         <v>2</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H62" s="40"/>
       <c r="I62" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3917,16 +3917,16 @@
       <c r="B63" s="84"/>
       <c r="C63" s="86"/>
       <c r="D63" s="88"/>
-      <c r="E63" s="90"/>
+      <c r="E63" s="92"/>
       <c r="F63" s="44">
         <v>3</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H63" s="40"/>
       <c r="I63" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3934,15 +3934,15 @@
       <c r="B64" s="84"/>
       <c r="C64" s="86"/>
       <c r="D64" s="88"/>
-      <c r="E64" s="90"/>
+      <c r="E64" s="92"/>
       <c r="F64" s="44">
         <v>4</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I64" s="40"/>
     </row>
@@ -3951,16 +3951,16 @@
       <c r="B65" s="84"/>
       <c r="C65" s="86"/>
       <c r="D65" s="88"/>
-      <c r="E65" s="90"/>
+      <c r="E65" s="92"/>
       <c r="F65" s="44">
         <v>6</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H65" s="40"/>
       <c r="I65" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3968,18 +3968,18 @@
       <c r="B66" s="84"/>
       <c r="C66" s="86"/>
       <c r="D66" s="88"/>
-      <c r="E66" s="90"/>
+      <c r="E66" s="92"/>
       <c r="F66" s="44">
         <v>7</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H66" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I66" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3987,16 +3987,16 @@
       <c r="B67" s="84"/>
       <c r="C67" s="86"/>
       <c r="D67" s="88"/>
-      <c r="E67" s="90"/>
+      <c r="E67" s="92"/>
       <c r="F67" s="44">
         <v>8</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H67" s="40"/>
       <c r="I67" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4004,50 +4004,50 @@
       <c r="B68" s="84"/>
       <c r="C68" s="86"/>
       <c r="D68" s="88"/>
-      <c r="E68" s="90"/>
+      <c r="E68" s="92"/>
       <c r="F68" s="44">
         <v>9</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H68" s="40"/>
       <c r="I68" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="100"/>
-      <c r="C69" s="100"/>
-      <c r="D69" s="100"/>
-      <c r="E69" s="100"/>
-      <c r="F69" s="100"/>
-      <c r="G69" s="100"/>
-      <c r="H69" s="100"/>
-      <c r="I69" s="100"/>
+      <c r="A69" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="89"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="89"/>
     </row>
     <row r="70" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="81">
         <v>21</v>
       </c>
       <c r="B70" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C70" s="85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D70" s="87" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E70" s="87"/>
       <c r="F70" s="44">
         <v>1</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H70" s="38"/>
       <c r="I70" s="38" t="s">
@@ -4064,11 +4064,11 @@
         <v>2</v>
       </c>
       <c r="G71" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H71" s="40"/>
       <c r="I71" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4076,20 +4076,20 @@
         <v>21</v>
       </c>
       <c r="B72" s="83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C72" s="85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D72" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E72" s="87"/>
       <c r="F72" s="44">
         <v>1</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H72" s="38"/>
       <c r="I72" s="38" t="s">
@@ -4106,11 +4106,11 @@
         <v>2</v>
       </c>
       <c r="G73" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H73" s="40"/>
       <c r="I73" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4123,11 +4123,11 @@
         <v>4</v>
       </c>
       <c r="G74" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H74" s="40"/>
       <c r="I74" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4135,20 +4135,20 @@
         <v>21</v>
       </c>
       <c r="B75" s="83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C75" s="85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D75" s="87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E75" s="87"/>
       <c r="F75" s="44">
         <v>1</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H75" s="38"/>
       <c r="I75" s="38" t="s">
@@ -4165,30 +4165,30 @@
         <v>2</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H76" s="40"/>
       <c r="I76" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="91"/>
-      <c r="B77" s="93" t="s">
-        <v>116</v>
-      </c>
-      <c r="C77" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="E77" s="95"/>
+      <c r="A77" s="95"/>
+      <c r="B77" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="93"/>
       <c r="F77" s="44">
         <v>1</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H77" s="38"/>
       <c r="I77" s="38" t="s">
@@ -4205,11 +4205,11 @@
         <v>2</v>
       </c>
       <c r="G78" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4222,11 +4222,11 @@
         <v>3</v>
       </c>
       <c r="G79" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4239,47 +4239,47 @@
         <v>4</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="40"/>
     </row>
     <row r="81" spans="1:9" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="98"/>
-      <c r="B81" s="99"/>
-      <c r="C81" s="98"/>
-      <c r="D81" s="97"/>
-      <c r="E81" s="97"/>
+      <c r="A81" s="96"/>
+      <c r="B81" s="98"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="94"/>
       <c r="F81" s="44">
         <v>5</v>
       </c>
       <c r="G81" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="91"/>
-      <c r="B82" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="C82" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="D82" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="E82" s="95" t="s">
-        <v>59</v>
+      <c r="A82" s="95"/>
+      <c r="B82" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="93" t="s">
+        <v>58</v>
       </c>
       <c r="F82" s="44">
         <v>1</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H82" s="38"/>
       <c r="I82" s="38" t="s">
@@ -4296,11 +4296,11 @@
         <v>2</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H83" s="40"/>
       <c r="I83" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4313,11 +4313,11 @@
         <v>3</v>
       </c>
       <c r="G84" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H84" s="40"/>
       <c r="I84" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4330,11 +4330,11 @@
         <v>4</v>
       </c>
       <c r="G85" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H85" s="40"/>
       <c r="I85" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4347,28 +4347,28 @@
         <v>5</v>
       </c>
       <c r="G86" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H86" s="40"/>
       <c r="I86" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="92"/>
-      <c r="B87" s="94"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="96"/>
-      <c r="E87" s="96"/>
+      <c r="A87" s="99"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="101"/>
       <c r="F87" s="44">
         <v>6</v>
       </c>
       <c r="G87" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H87" s="40"/>
       <c r="I87" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4376,22 +4376,22 @@
         <v>1</v>
       </c>
       <c r="B88" s="83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C88" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D88" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E88" s="89" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="E88" s="91" t="s">
+        <v>64</v>
       </c>
       <c r="F88" s="44">
         <v>1</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H88" s="38"/>
       <c r="I88" s="38" t="s">
@@ -4403,16 +4403,16 @@
       <c r="B89" s="84"/>
       <c r="C89" s="86"/>
       <c r="D89" s="88"/>
-      <c r="E89" s="90"/>
+      <c r="E89" s="92"/>
       <c r="F89" s="44">
         <v>2</v>
       </c>
       <c r="G89" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="40" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4420,16 +4420,16 @@
       <c r="B90" s="84"/>
       <c r="C90" s="86"/>
       <c r="D90" s="88"/>
-      <c r="E90" s="90"/>
+      <c r="E90" s="92"/>
       <c r="F90" s="44">
         <v>3</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H90" s="40"/>
       <c r="I90" s="40" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4437,15 +4437,15 @@
       <c r="B91" s="84"/>
       <c r="C91" s="86"/>
       <c r="D91" s="88"/>
-      <c r="E91" s="90"/>
+      <c r="E91" s="92"/>
       <c r="F91" s="44">
         <v>5</v>
       </c>
       <c r="G91" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" s="40"/>
     </row>
@@ -4454,16 +4454,16 @@
       <c r="B92" s="84"/>
       <c r="C92" s="86"/>
       <c r="D92" s="88"/>
-      <c r="E92" s="90"/>
+      <c r="E92" s="92"/>
       <c r="F92" s="44">
         <v>6</v>
       </c>
       <c r="G92" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H92" s="40"/>
       <c r="I92" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4471,18 +4471,18 @@
       <c r="B93" s="84"/>
       <c r="C93" s="86"/>
       <c r="D93" s="88"/>
-      <c r="E93" s="90"/>
+      <c r="E93" s="92"/>
       <c r="F93" s="44">
         <v>7</v>
       </c>
       <c r="G93" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H93" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I93" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4490,18 +4490,18 @@
       <c r="B94" s="84"/>
       <c r="C94" s="86"/>
       <c r="D94" s="88"/>
-      <c r="E94" s="90"/>
+      <c r="E94" s="92"/>
       <c r="F94" s="44">
         <v>8</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I94" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4509,16 +4509,16 @@
       <c r="B95" s="84"/>
       <c r="C95" s="86"/>
       <c r="D95" s="88"/>
-      <c r="E95" s="90"/>
+      <c r="E95" s="92"/>
       <c r="F95" s="44">
         <v>9</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H95" s="40"/>
       <c r="I95" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4526,22 +4526,22 @@
         <v>1</v>
       </c>
       <c r="B96" s="83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C96" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="E96" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="F96" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="D96" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="E96" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="F96" s="44" t="s">
-        <v>178</v>
-      </c>
       <c r="G96" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H96" s="38"/>
       <c r="I96" s="38" t="s">
@@ -4553,16 +4553,16 @@
       <c r="B97" s="84"/>
       <c r="C97" s="86"/>
       <c r="D97" s="88"/>
-      <c r="E97" s="90"/>
+      <c r="E97" s="92"/>
       <c r="F97" s="44">
         <v>2</v>
       </c>
       <c r="G97" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H97" s="40"/>
       <c r="I97" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4570,16 +4570,16 @@
       <c r="B98" s="84"/>
       <c r="C98" s="86"/>
       <c r="D98" s="88"/>
-      <c r="E98" s="90"/>
+      <c r="E98" s="92"/>
       <c r="F98" s="44">
         <v>3</v>
       </c>
       <c r="G98" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H98" s="40"/>
       <c r="I98" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4587,15 +4587,15 @@
       <c r="B99" s="84"/>
       <c r="C99" s="86"/>
       <c r="D99" s="88"/>
-      <c r="E99" s="90"/>
+      <c r="E99" s="92"/>
       <c r="F99" s="44">
         <v>4</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H99" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" s="40"/>
     </row>
@@ -4604,16 +4604,16 @@
       <c r="B100" s="84"/>
       <c r="C100" s="86"/>
       <c r="D100" s="88"/>
-      <c r="E100" s="90"/>
+      <c r="E100" s="92"/>
       <c r="F100" s="44">
         <v>6</v>
       </c>
       <c r="G100" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H100" s="40"/>
       <c r="I100" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4621,18 +4621,18 @@
       <c r="B101" s="84"/>
       <c r="C101" s="86"/>
       <c r="D101" s="88"/>
-      <c r="E101" s="90"/>
+      <c r="E101" s="92"/>
       <c r="F101" s="44">
         <v>7</v>
       </c>
       <c r="G101" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H101" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I101" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4640,16 +4640,16 @@
       <c r="B102" s="84"/>
       <c r="C102" s="86"/>
       <c r="D102" s="88"/>
-      <c r="E102" s="90"/>
+      <c r="E102" s="92"/>
       <c r="F102" s="44">
         <v>8</v>
       </c>
       <c r="G102" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H102" s="40"/>
       <c r="I102" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4657,16 +4657,16 @@
       <c r="B103" s="84"/>
       <c r="C103" s="86"/>
       <c r="D103" s="88"/>
-      <c r="E103" s="90"/>
+      <c r="E103" s="92"/>
       <c r="F103" s="44">
         <v>9</v>
       </c>
       <c r="G103" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H103" s="40"/>
       <c r="I103" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4674,22 +4674,22 @@
         <v>1</v>
       </c>
       <c r="B104" s="83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C104" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D104" s="87" t="s">
-        <v>175</v>
-      </c>
-      <c r="E104" s="89" t="s">
-        <v>65</v>
+        <v>174</v>
+      </c>
+      <c r="E104" s="91" t="s">
+        <v>64</v>
       </c>
       <c r="F104" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H104" s="38"/>
       <c r="I104" s="38" t="s">
@@ -4701,16 +4701,16 @@
       <c r="B105" s="84"/>
       <c r="C105" s="86"/>
       <c r="D105" s="88"/>
-      <c r="E105" s="90"/>
+      <c r="E105" s="92"/>
       <c r="F105" s="44">
         <v>2</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H105" s="40"/>
       <c r="I105" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4718,16 +4718,16 @@
       <c r="B106" s="84"/>
       <c r="C106" s="86"/>
       <c r="D106" s="88"/>
-      <c r="E106" s="90"/>
+      <c r="E106" s="92"/>
       <c r="F106" s="44">
         <v>3</v>
       </c>
       <c r="G106" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H106" s="40"/>
       <c r="I106" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4735,15 +4735,15 @@
       <c r="B107" s="84"/>
       <c r="C107" s="86"/>
       <c r="D107" s="88"/>
-      <c r="E107" s="90"/>
+      <c r="E107" s="92"/>
       <c r="F107" s="44">
         <v>4</v>
       </c>
       <c r="G107" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H107" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I107" s="40"/>
     </row>
@@ -4752,16 +4752,16 @@
       <c r="B108" s="84"/>
       <c r="C108" s="86"/>
       <c r="D108" s="88"/>
-      <c r="E108" s="90"/>
+      <c r="E108" s="92"/>
       <c r="F108" s="44">
         <v>6</v>
       </c>
       <c r="G108" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H108" s="40"/>
       <c r="I108" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4769,18 +4769,18 @@
       <c r="B109" s="84"/>
       <c r="C109" s="86"/>
       <c r="D109" s="88"/>
-      <c r="E109" s="90"/>
+      <c r="E109" s="92"/>
       <c r="F109" s="44">
         <v>7</v>
       </c>
       <c r="G109" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H109" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I109" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4788,16 +4788,16 @@
       <c r="B110" s="84"/>
       <c r="C110" s="86"/>
       <c r="D110" s="88"/>
-      <c r="E110" s="90"/>
+      <c r="E110" s="92"/>
       <c r="F110" s="44">
         <v>8</v>
       </c>
       <c r="G110" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H110" s="40"/>
       <c r="I110" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4805,16 +4805,16 @@
       <c r="B111" s="84"/>
       <c r="C111" s="86"/>
       <c r="D111" s="88"/>
-      <c r="E111" s="90"/>
+      <c r="E111" s="92"/>
       <c r="F111" s="44">
         <v>9</v>
       </c>
       <c r="G111" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H111" s="40"/>
       <c r="I111" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4822,20 +4822,20 @@
         <v>21</v>
       </c>
       <c r="B112" s="83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C112" s="85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D112" s="87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E112" s="87"/>
       <c r="F112" s="44">
         <v>1</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H112" s="38"/>
       <c r="I112" s="38" t="s">
@@ -4852,11 +4852,11 @@
         <v>2</v>
       </c>
       <c r="G113" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H113" s="40"/>
       <c r="I113" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4869,37 +4869,64 @@
         <v>4</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H114" s="40"/>
       <c r="I114" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="E5:E12"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="B88:B95"/>
-    <mergeCell ref="C88:C95"/>
-    <mergeCell ref="D88:D95"/>
-    <mergeCell ref="E88:E95"/>
+    <mergeCell ref="A104:A111"/>
+    <mergeCell ref="B104:B111"/>
+    <mergeCell ref="C104:C111"/>
+    <mergeCell ref="D104:D111"/>
+    <mergeCell ref="E104:E111"/>
+    <mergeCell ref="A96:A103"/>
+    <mergeCell ref="B96:B103"/>
+    <mergeCell ref="C96:C103"/>
+    <mergeCell ref="D96:D103"/>
+    <mergeCell ref="E96:E103"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="E82:E87"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="E53:E60"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="E61:E68"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="C45:C52"/>
+    <mergeCell ref="D45:D52"/>
+    <mergeCell ref="E45:E52"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="E29:E36"/>
+    <mergeCell ref="B29:B44"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="D37:D44"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A77:A81"/>
     <mergeCell ref="A69:I69"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="B75:B76"/>
@@ -4916,55 +4943,28 @@
     <mergeCell ref="C70:C71"/>
     <mergeCell ref="D70:D71"/>
     <mergeCell ref="E70:E71"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="B29:B44"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="D37:D44"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="E21:E28"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="C45:C52"/>
-    <mergeCell ref="D45:D52"/>
-    <mergeCell ref="E45:E52"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="E61:E68"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="E53:E60"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="E82:E87"/>
-    <mergeCell ref="A96:A103"/>
-    <mergeCell ref="B96:B103"/>
-    <mergeCell ref="C96:C103"/>
-    <mergeCell ref="D96:D103"/>
-    <mergeCell ref="E96:E103"/>
-    <mergeCell ref="A104:A111"/>
-    <mergeCell ref="B104:B111"/>
-    <mergeCell ref="C104:C111"/>
-    <mergeCell ref="D104:D111"/>
-    <mergeCell ref="E104:E111"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="B88:B95"/>
+    <mergeCell ref="C88:C95"/>
+    <mergeCell ref="D88:D95"/>
+    <mergeCell ref="E88:E95"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
